--- a/MMK/wnd.xlsx
+++ b/MMK/wnd.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\544\source\repos\MMK\MMK\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2DC1D6-4B32-444B-9787-014584C38045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -30,8 +36,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="CxtUnlimited" type="6" background="1" refreshedVersion="2" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="CxtUnlimited" type="6" refreshedVersion="2" background="1" saveData="1">
     <textPr sourceFile="C:\Users\79159\Desktop\NNGU\ЧМ мага\MMK\MMK\CxtUnlimited.txt">
       <textFields>
         <textField/>
@@ -42,14 +48,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,346 +57,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -404,251 +74,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -657,89 +85,158 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
-    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
-    <cellStyle name="Процент" xfId="3" builtinId="5"/>
-    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
-    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
-    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
-    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
-    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
-    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
-    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
-    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
-    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
-    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
-    <cellStyle name="Итого" xfId="21" builtinId="25"/>
-    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
-    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
-    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
-    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
-    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
-    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
-    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
-    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
-    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -750,7 +247,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -778,163 +275,49 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -946,7 +329,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -972,6 +354,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -979,7 +362,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smooth"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -996,9 +379,6 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Лист1!$A$305:$CV$305</c:f>
@@ -1321,7 +701,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.888889</c:v>
+                  <c:v>0.88888900000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1618,6 +998,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-23CA-4F36-A644-29881161795C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1684,6 +1069,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="130975120"/>
@@ -1744,6 +1130,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="661428894"/>
@@ -1766,7 +1153,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1792,6 +1178,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1821,6 +1208,7 @@
       <a:pPr>
         <a:defRPr lang="ru-RU"/>
       </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2409,28 +1797,34 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>96520</xdr:colOff>
-      <xdr:row>282</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
+      <xdr:col>101</xdr:col>
+      <xdr:colOff>287019</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>46355</xdr:colOff>
-      <xdr:row>317</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>120</xdr:col>
+      <xdr:colOff>355917</xdr:colOff>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7045960" y="51721385"/>
-        <a:ext cx="11448415" cy="6266815"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2444,7 +1838,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2699,30 +2093,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CV305"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" topLeftCell="A263" workbookViewId="0">
-      <selection activeCell="A305" sqref="A254:CV254;A305:CV305"/>
+    <sheetView tabSelected="1" topLeftCell="A218" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L225" sqref="L225"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.66666666666667" customWidth="1"/>
-    <col min="2" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="4" max="33" width="5.66666666666667" customWidth="1"/>
-    <col min="34" max="35" width="2.66666666666667" customWidth="1"/>
-    <col min="36" max="39" width="5.66666666666667" customWidth="1"/>
-    <col min="40" max="42" width="2.66666666666667" customWidth="1"/>
-    <col min="43" max="44" width="5.66666666666667" customWidth="1"/>
-    <col min="45" max="45" width="2.66666666666667" customWidth="1"/>
-    <col min="46" max="46" width="5.66666666666667" customWidth="1"/>
-    <col min="47" max="100" width="2.66666666666667" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="33" width="5.7109375" customWidth="1"/>
+    <col min="34" max="35" width="2.7109375" customWidth="1"/>
+    <col min="36" max="39" width="5.7109375" customWidth="1"/>
+    <col min="40" max="42" width="2.7109375" customWidth="1"/>
+    <col min="43" max="44" width="5.7109375" customWidth="1"/>
+    <col min="45" max="45" width="2.7109375" customWidth="1"/>
+    <col min="46" max="46" width="5.7109375" customWidth="1"/>
+    <col min="47" max="100" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100">
@@ -12696,10 +12090,10 @@
         <v>0</v>
       </c>
       <c r="B34">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="C34">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -12998,10 +12392,10 @@
         <v>0</v>
       </c>
       <c r="B35">
-        <v>0.666667</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="C35">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="D35">
         <v>0.04</v>
@@ -13300,10 +12694,10 @@
         <v>1</v>
       </c>
       <c r="B36">
-        <v>0.666667</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="C36">
-        <v>0.444444</v>
+        <v>0.44444400000000001</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -13602,10 +12996,10 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>0.666667</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="C37">
-        <v>0.444444</v>
+        <v>0.44444400000000001</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -13907,7 +13301,7 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <v>0.444444</v>
+        <v>0.44444400000000001</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -14206,10 +13600,10 @@
         <v>1</v>
       </c>
       <c r="B39">
-        <v>0.666667</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="C39">
-        <v>0.666667</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -14511,7 +13905,7 @@
         <v>1</v>
       </c>
       <c r="C40">
-        <v>0.666667</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -14813,7 +14207,7 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <v>0.777778</v>
+        <v>0.77777799999999997</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -15115,7 +14509,7 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>0.666667</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -15417,7 +14811,7 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>0.666667</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -15719,7 +15113,7 @@
         <v>1</v>
       </c>
       <c r="C44">
-        <v>0.666667</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -16021,7 +15415,7 @@
         <v>1</v>
       </c>
       <c r="C45">
-        <v>0.666667</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -16323,7 +15717,7 @@
         <v>1</v>
       </c>
       <c r="C46">
-        <v>0.555556</v>
+        <v>0.55555600000000005</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -16622,10 +16016,10 @@
         <v>1</v>
       </c>
       <c r="B47">
-        <v>0.666667</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="C47">
-        <v>0.666667</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -16927,7 +16321,7 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <v>0.666667</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -17229,7 +16623,7 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>0.888889</v>
+        <v>0.88888900000000004</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -17531,7 +16925,7 @@
         <v>1</v>
       </c>
       <c r="C50">
-        <v>0.888889</v>
+        <v>0.88888900000000004</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -17833,7 +17227,7 @@
         <v>1</v>
       </c>
       <c r="C51">
-        <v>0.888889</v>
+        <v>0.88888900000000004</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -18135,7 +17529,7 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>0.777778</v>
+        <v>0.77777799999999997</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -18437,7 +17831,7 @@
         <v>1</v>
       </c>
       <c r="C53">
-        <v>0.666667</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -18739,7 +18133,7 @@
         <v>1</v>
       </c>
       <c r="C54">
-        <v>0.666667</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -19041,7 +18435,7 @@
         <v>1</v>
       </c>
       <c r="C55">
-        <v>0.777778</v>
+        <v>0.77777799999999997</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -19343,7 +18737,7 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>0.777778</v>
+        <v>0.77777799999999997</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -19642,10 +19036,10 @@
         <v>1</v>
       </c>
       <c r="B57">
-        <v>0.666667</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="C57">
-        <v>0.777778</v>
+        <v>0.77777799999999997</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -19947,7 +19341,7 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>0.666667</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -20249,7 +19643,7 @@
         <v>1</v>
       </c>
       <c r="C59">
-        <v>0.777778</v>
+        <v>0.77777799999999997</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -20551,7 +19945,7 @@
         <v>1</v>
       </c>
       <c r="C60">
-        <v>0.888889</v>
+        <v>0.88888900000000004</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -20853,7 +20247,7 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <v>0.888889</v>
+        <v>0.88888900000000004</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -21155,7 +20549,7 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <v>0.777778</v>
+        <v>0.77777799999999997</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -21457,7 +20851,7 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>0.666667</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -21756,10 +21150,10 @@
         <v>1</v>
       </c>
       <c r="B64">
-        <v>0.666667</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="C64">
-        <v>0.777778</v>
+        <v>0.77777799999999997</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -22061,7 +21455,7 @@
         <v>1</v>
       </c>
       <c r="C65">
-        <v>0.777778</v>
+        <v>0.77777799999999997</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -22360,10 +21754,10 @@
         <v>0</v>
       </c>
       <c r="B66">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="C66">
-        <v>0.666667</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -22662,10 +22056,10 @@
         <v>0</v>
       </c>
       <c r="B67">
-        <v>0.666667</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="C67">
-        <v>0.444444</v>
+        <v>0.44444400000000001</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -22964,7 +22358,7 @@
         <v>0</v>
       </c>
       <c r="B68">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="C68">
         <v>0.222222</v>
@@ -38366,7 +37760,7 @@
         <v>0</v>
       </c>
       <c r="B120">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="C120">
         <v>0.111111</v>
@@ -38970,7 +38364,7 @@
         <v>0</v>
       </c>
       <c r="B122">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="C122">
         <v>0.111111</v>
@@ -40480,7 +39874,7 @@
         <v>0</v>
       </c>
       <c r="B127">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="C127">
         <v>0.222222</v>
@@ -41084,7 +40478,7 @@
         <v>0</v>
       </c>
       <c r="B129">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="C129">
         <v>0.111111</v>
@@ -41386,7 +40780,7 @@
         <v>0</v>
       </c>
       <c r="B130">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="C130">
         <v>0.111111</v>
@@ -41990,10 +41384,10 @@
         <v>0</v>
       </c>
       <c r="B132">
-        <v>0.666667</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="C132">
-        <v>0.444444</v>
+        <v>0.44444400000000001</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -42292,10 +41686,10 @@
         <v>0</v>
       </c>
       <c r="B133">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="C133">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -42594,10 +41988,10 @@
         <v>0</v>
       </c>
       <c r="B134">
-        <v>0.666667</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="C134">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="D134">
         <v>0.04</v>
@@ -42896,10 +42290,10 @@
         <v>0</v>
       </c>
       <c r="B135">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="C135">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -43201,7 +42595,7 @@
         <v>1</v>
       </c>
       <c r="C136">
-        <v>0.666667</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -43503,7 +42897,7 @@
         <v>1</v>
       </c>
       <c r="C137">
-        <v>0.888889</v>
+        <v>0.88888900000000004</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -45617,7 +45011,7 @@
         <v>1</v>
       </c>
       <c r="C144">
-        <v>0.888889</v>
+        <v>0.88888900000000004</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -45919,7 +45313,7 @@
         <v>1</v>
       </c>
       <c r="C145">
-        <v>0.888889</v>
+        <v>0.88888900000000004</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -46221,7 +45615,7 @@
         <v>1</v>
       </c>
       <c r="C146">
-        <v>0.888889</v>
+        <v>0.88888900000000004</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -46523,7 +45917,7 @@
         <v>1</v>
       </c>
       <c r="C147">
-        <v>0.888889</v>
+        <v>0.88888900000000004</v>
       </c>
       <c r="D147">
         <v>0.04</v>
@@ -46825,7 +46219,7 @@
         <v>1</v>
       </c>
       <c r="C148">
-        <v>0.888889</v>
+        <v>0.88888900000000004</v>
       </c>
       <c r="D148">
         <v>0.04</v>
@@ -47127,7 +46521,7 @@
         <v>1</v>
       </c>
       <c r="C149">
-        <v>0.888889</v>
+        <v>0.88888900000000004</v>
       </c>
       <c r="D149">
         <v>0.04</v>
@@ -48033,7 +47427,7 @@
         <v>1</v>
       </c>
       <c r="C152">
-        <v>0.888889</v>
+        <v>0.88888900000000004</v>
       </c>
       <c r="D152">
         <v>0.04</v>
@@ -48332,10 +47726,10 @@
         <v>1</v>
       </c>
       <c r="B153">
-        <v>0.666667</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="C153">
-        <v>0.777778</v>
+        <v>0.77777799999999997</v>
       </c>
       <c r="D153">
         <v>0.04</v>
@@ -48637,7 +48031,7 @@
         <v>1</v>
       </c>
       <c r="C154">
-        <v>0.777778</v>
+        <v>0.77777799999999997</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -48939,7 +48333,7 @@
         <v>1</v>
       </c>
       <c r="C155">
-        <v>0.888889</v>
+        <v>0.88888900000000004</v>
       </c>
       <c r="D155">
         <v>0.04</v>
@@ -49543,7 +48937,7 @@
         <v>1</v>
       </c>
       <c r="C157">
-        <v>0.888889</v>
+        <v>0.88888900000000004</v>
       </c>
       <c r="D157">
         <v>0.04</v>
@@ -49845,7 +49239,7 @@
         <v>1</v>
       </c>
       <c r="C158">
-        <v>0.777778</v>
+        <v>0.77777799999999997</v>
       </c>
       <c r="D158">
         <v>0.04</v>
@@ -50147,7 +49541,7 @@
         <v>1</v>
       </c>
       <c r="C159">
-        <v>0.777778</v>
+        <v>0.77777799999999997</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -50449,7 +49843,7 @@
         <v>1</v>
       </c>
       <c r="C160">
-        <v>0.888889</v>
+        <v>0.88888900000000004</v>
       </c>
       <c r="D160">
         <v>0.04</v>
@@ -52261,7 +51655,7 @@
         <v>1</v>
       </c>
       <c r="C166">
-        <v>0.888889</v>
+        <v>0.88888900000000004</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -52563,7 +51957,7 @@
         <v>1</v>
       </c>
       <c r="C167">
-        <v>0.888889</v>
+        <v>0.88888900000000004</v>
       </c>
       <c r="D167">
         <v>0.04</v>
@@ -52865,7 +52259,7 @@
         <v>1</v>
       </c>
       <c r="C168">
-        <v>0.888889</v>
+        <v>0.88888900000000004</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -53164,10 +52558,10 @@
         <v>0</v>
       </c>
       <c r="B169">
-        <v>0.666667</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="C169">
-        <v>0.666667</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -53466,10 +52860,10 @@
         <v>0</v>
       </c>
       <c r="B170">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="C170">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="D170">
         <v>0.04</v>
@@ -53768,7 +53162,7 @@
         <v>0</v>
       </c>
       <c r="B171">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="C171">
         <v>0.111111</v>
@@ -54372,7 +53766,7 @@
         <v>0</v>
       </c>
       <c r="B173">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="C173">
         <v>0.111111</v>
@@ -55882,7 +55276,7 @@
         <v>0</v>
       </c>
       <c r="B178">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="C178">
         <v>0.111111</v>
@@ -57090,10 +56484,10 @@
         <v>0</v>
       </c>
       <c r="B182">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="C182">
-        <v>0.444444</v>
+        <v>0.44444400000000001</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -57392,10 +56786,10 @@
         <v>0</v>
       </c>
       <c r="B183">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="C183">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -57694,10 +57088,10 @@
         <v>0</v>
       </c>
       <c r="B184">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="C184">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -67056,7 +66450,7 @@
         <v>0</v>
       </c>
       <c r="B216">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="C216">
         <v>0.111111</v>
@@ -67962,7 +67356,7 @@
         <v>0</v>
       </c>
       <c r="B219">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="C219">
         <v>0.222222</v>
@@ -68267,7 +67661,7 @@
         <v>0</v>
       </c>
       <c r="C220">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="D220">
         <v>0</v>
@@ -68566,7 +67960,7 @@
         <v>0</v>
       </c>
       <c r="B221">
-        <v>0.666667</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="C221">
         <v>0.222222</v>
@@ -69170,7 +68564,7 @@
         <v>0</v>
       </c>
       <c r="B223">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="C223">
         <v>0.111111</v>
@@ -70378,7 +69772,7 @@
         <v>0</v>
       </c>
       <c r="B227">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="C227">
         <v>0.222222</v>
@@ -71586,10 +70980,10 @@
         <v>0</v>
       </c>
       <c r="B231">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="C231">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="D231">
         <v>0.04</v>
@@ -71888,10 +71282,10 @@
         <v>0</v>
       </c>
       <c r="B232">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="C232">
-        <v>0.555556</v>
+        <v>0.55555600000000005</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -72190,10 +71584,10 @@
         <v>0</v>
       </c>
       <c r="B233">
-        <v>0.666667</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="C233">
-        <v>0.555556</v>
+        <v>0.55555600000000005</v>
       </c>
       <c r="D233">
         <v>0.04</v>
@@ -72492,10 +71886,10 @@
         <v>0</v>
       </c>
       <c r="B234">
-        <v>0.666667</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="C234">
-        <v>0.444444</v>
+        <v>0.44444400000000001</v>
       </c>
       <c r="D234">
         <v>0.04</v>
@@ -72794,10 +72188,10 @@
         <v>0</v>
       </c>
       <c r="B235">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="C235">
-        <v>0.444444</v>
+        <v>0.44444400000000001</v>
       </c>
       <c r="D235">
         <v>0.04</v>
@@ -73099,7 +72493,7 @@
         <v>1</v>
       </c>
       <c r="C236">
-        <v>0.777778</v>
+        <v>0.77777799999999997</v>
       </c>
       <c r="D236">
         <v>0.04</v>
@@ -73401,7 +72795,7 @@
         <v>1</v>
       </c>
       <c r="C237">
-        <v>0.888889</v>
+        <v>0.88888900000000004</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -73703,7 +73097,7 @@
         <v>1</v>
       </c>
       <c r="C238">
-        <v>0.777778</v>
+        <v>0.77777799999999997</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -74005,7 +73399,7 @@
         <v>1</v>
       </c>
       <c r="C239">
-        <v>0.777778</v>
+        <v>0.77777799999999997</v>
       </c>
       <c r="D239">
         <v>0.04</v>
@@ -74307,7 +73701,7 @@
         <v>1</v>
       </c>
       <c r="C240">
-        <v>0.777778</v>
+        <v>0.77777799999999997</v>
       </c>
       <c r="D240">
         <v>0.04</v>
@@ -74606,10 +74000,10 @@
         <v>1</v>
       </c>
       <c r="B241">
-        <v>0.666667</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="C241">
-        <v>0.888889</v>
+        <v>0.88888900000000004</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -74911,7 +74305,7 @@
         <v>1</v>
       </c>
       <c r="C242">
-        <v>0.888889</v>
+        <v>0.88888900000000004</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -76723,7 +76117,7 @@
         <v>1</v>
       </c>
       <c r="C248">
-        <v>0.888889</v>
+        <v>0.88888900000000004</v>
       </c>
       <c r="D248">
         <v>0.04</v>
@@ -77025,7 +76419,7 @@
         <v>1</v>
       </c>
       <c r="C249">
-        <v>0.888889</v>
+        <v>0.88888900000000004</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -77327,7 +76721,7 @@
         <v>1</v>
       </c>
       <c r="C250">
-        <v>0.888889</v>
+        <v>0.88888900000000004</v>
       </c>
       <c r="D250">
         <v>0.04</v>
@@ -78535,7 +77929,7 @@
         <v>1</v>
       </c>
       <c r="C254">
-        <v>0.888889</v>
+        <v>0.88888900000000004</v>
       </c>
       <c r="D254">
         <v>0</v>
@@ -78837,7 +78231,7 @@
         <v>1</v>
       </c>
       <c r="C255">
-        <v>0.888889</v>
+        <v>0.88888900000000004</v>
       </c>
       <c r="D255">
         <v>0.04</v>
@@ -79139,7 +78533,7 @@
         <v>1</v>
       </c>
       <c r="C256">
-        <v>0.777778</v>
+        <v>0.77777799999999997</v>
       </c>
       <c r="D256">
         <v>0.04</v>
@@ -79441,7 +78835,7 @@
         <v>1</v>
       </c>
       <c r="C257">
-        <v>0.888889</v>
+        <v>0.88888900000000004</v>
       </c>
       <c r="D257">
         <v>0.04</v>
@@ -79743,7 +79137,7 @@
         <v>1</v>
       </c>
       <c r="C258">
-        <v>0.888889</v>
+        <v>0.88888900000000004</v>
       </c>
       <c r="D258">
         <v>0.04</v>
@@ -81253,7 +80647,7 @@
         <v>1</v>
       </c>
       <c r="C263">
-        <v>0.888889</v>
+        <v>0.88888900000000004</v>
       </c>
       <c r="D263">
         <v>0.04</v>
@@ -81555,7 +80949,7 @@
         <v>1</v>
       </c>
       <c r="C264">
-        <v>0.888889</v>
+        <v>0.88888900000000004</v>
       </c>
       <c r="D264">
         <v>0.04</v>
@@ -81857,7 +81251,7 @@
         <v>1</v>
       </c>
       <c r="C265">
-        <v>0.888889</v>
+        <v>0.88888900000000004</v>
       </c>
       <c r="D265">
         <v>0.04</v>
@@ -82760,10 +82154,10 @@
         <v>0</v>
       </c>
       <c r="B268">
-        <v>0.666667</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="C268">
-        <v>0.888889</v>
+        <v>0.88888900000000004</v>
       </c>
       <c r="D268">
         <v>0.04</v>
@@ -83062,10 +82456,10 @@
         <v>0</v>
       </c>
       <c r="B269">
-        <v>0.666667</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="C269">
-        <v>0.777778</v>
+        <v>0.77777799999999997</v>
       </c>
       <c r="D269">
         <v>0.04</v>
@@ -83364,10 +82758,10 @@
         <v>0</v>
       </c>
       <c r="B270">
-        <v>0.666667</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="C270">
-        <v>0.666667</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -83666,10 +83060,10 @@
         <v>0</v>
       </c>
       <c r="B271">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="C271">
-        <v>0.666667</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -83971,7 +83365,7 @@
         <v>1</v>
       </c>
       <c r="C272">
-        <v>0.555556</v>
+        <v>0.55555600000000005</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -84270,10 +83664,10 @@
         <v>0</v>
       </c>
       <c r="B273">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="C273">
-        <v>0.444444</v>
+        <v>0.44444400000000001</v>
       </c>
       <c r="D273">
         <v>0.04</v>
@@ -84572,7 +83966,7 @@
         <v>0</v>
       </c>
       <c r="B274">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="C274">
         <v>0.222222</v>
@@ -84874,7 +84268,7 @@
         <v>0</v>
       </c>
       <c r="B275">
-        <v>0.666667</v>
+        <v>0.66666700000000001</v>
       </c>
       <c r="C275">
         <v>0.222222</v>
@@ -85481,7 +84875,7 @@
         <v>1</v>
       </c>
       <c r="C277">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -85783,7 +85177,7 @@
         <v>0</v>
       </c>
       <c r="C278">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="D278">
         <v>0</v>
@@ -86082,10 +85476,10 @@
         <v>0</v>
       </c>
       <c r="B279">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="C279">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -86384,7 +85778,7 @@
         <v>0</v>
       </c>
       <c r="B280">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="C280">
         <v>0.222222</v>
@@ -90008,7 +89402,7 @@
         <v>0</v>
       </c>
       <c r="B292">
-        <v>0.333333</v>
+        <v>0.33333299999999999</v>
       </c>
       <c r="C292">
         <v>0.111111</v>
@@ -93629,7 +93023,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>